--- a/DARPA_G_Tracking.xlsx
+++ b/DARPA_G_Tracking.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Tracking" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Tableau croisé dynamique" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="DARPA_G" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Tracking" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Tableau croisé dynamique" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="109">
   <si>
     <t>Project Information</t>
   </si>
@@ -116,22 +117,166 @@
     <t xml:space="preserve">Heure de TD dédié au projet </t>
   </si>
   <si>
-    <t>Creer module joueur</t>
-  </si>
-  <si>
-    <t>2 heure/Homme</t>
-  </si>
-  <si>
-    <t>Creer module partie</t>
-  </si>
-  <si>
-    <t>Creer module appariement</t>
-  </si>
-  <si>
-    <t>Creer module anagrammeur</t>
-  </si>
-  <si>
-    <t>Creer module commun</t>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Réunion Team</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Project Tracking</t>
+  </si>
+  <si>
+    <t>DEVELPPEMENT</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module Joueur </t>
+  </si>
+  <si>
+    <t>DJC</t>
+  </si>
+  <si>
+    <t>Architecture de la classe Joueur</t>
+  </si>
+  <si>
+    <t>DJF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Développement fonctions Joueur </t>
+  </si>
+  <si>
+    <t>DJWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Développement WebServices Joueur </t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Module Partie</t>
+  </si>
+  <si>
+    <t>DPC</t>
+  </si>
+  <si>
+    <t>Architecture de la classe Partie</t>
+  </si>
+  <si>
+    <t>DPF</t>
+  </si>
+  <si>
+    <t>Développement fonctions Partie</t>
+  </si>
+  <si>
+    <t>DPWS</t>
+  </si>
+  <si>
+    <t>Développement WebServices Partie</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module Appariement </t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>Architecture de la classe Appariement</t>
+  </si>
+  <si>
+    <t>DAF</t>
+  </si>
+  <si>
+    <t>Développement fonctions Appariement</t>
+  </si>
+  <si>
+    <t>DAWS</t>
+  </si>
+  <si>
+    <t>Développement WebServices Appariement</t>
+  </si>
+  <si>
+    <t>DAN</t>
+  </si>
+  <si>
+    <t>Module Anagrammeur</t>
+  </si>
+  <si>
+    <t>DANC</t>
+  </si>
+  <si>
+    <t>Architecture de la classe Anagrammeur</t>
+  </si>
+  <si>
+    <t>DANF</t>
+  </si>
+  <si>
+    <t>Développement fonctions Anagrammeur</t>
+  </si>
+  <si>
+    <t>DANWS</t>
+  </si>
+  <si>
+    <t>Développement WebServices Anagrammeur</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>Module Commun</t>
+  </si>
+  <si>
+    <t>DCC</t>
+  </si>
+  <si>
+    <t>Architecture des classes Commun</t>
+  </si>
+  <si>
+    <t>DCF</t>
+  </si>
+  <si>
+    <t>Développement fonctions Commun</t>
+  </si>
+  <si>
+    <t>SWS</t>
+  </si>
+  <si>
+    <t>Architecture Spring/WebService</t>
+  </si>
+  <si>
+    <t>DOCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place Docker </t>
+  </si>
+  <si>
+    <t>TCI</t>
+  </si>
+  <si>
+    <t>Intégration Travis CI</t>
+  </si>
+  <si>
+    <t>Conception</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Analyse sujet</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conception jeu scrabble </t>
   </si>
   <si>
     <t>Tracking History</t>
@@ -156,6 +301,42 @@
   </si>
   <si>
     <t>Mise en place architecture github, mise en place Travis.yml, création pom.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyse du sujet en groupe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conception du sujet en groupe </t>
+  </si>
+  <si>
+    <t>Premier développement de l'architecture du module partie</t>
+  </si>
+  <si>
+    <t>Premier développement de l'architecture du module joueur</t>
+  </si>
+  <si>
+    <t>Premier développement de l'architecture du module anagrammeur</t>
+  </si>
+  <si>
+    <t>Architecture classes communes</t>
+  </si>
+  <si>
+    <t>Développement classes communes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Séance de TD, continuation du développement </t>
+  </si>
+  <si>
+    <t>Continuation du développement des classes attribuées</t>
+  </si>
+  <si>
+    <t>Séance de TD, introduction à docker et Spring boot</t>
+  </si>
+  <si>
+    <t>Mise en place Spring et webservices</t>
+  </si>
+  <si>
+    <t>Introduction à Docker</t>
   </si>
   <si>
     <t>SUM de Workload</t>
@@ -171,7 +352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -203,18 +384,84 @@
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2C4C9"/>
+        <bgColor rgb="FFA2C4C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4A7D6"/>
+        <bgColor rgb="FFB4A7D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D2E9"/>
+        <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -223,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -237,10 +484,55 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
@@ -260,15 +552,24 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" invalid="1" refreshOnLoad="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B36:E42" sheet="Tracking"/>
+    <worksheetSource ref="C3:F63" sheet="Tracking"/>
   </cacheSource>
   <cacheFields>
     <cacheField name="Date" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsDate="1" containsString="0">
         <d v="2022-05-09T00:00:00Z"/>
+        <d v="2022-05-10T00:00:00Z"/>
+        <d v="2022-05-16T00:00:00Z"/>
+        <d v="2022-05-17T00:00:00Z"/>
+        <d v="2022-05-23T00:00:00Z"/>
+        <d v="2022-05-24T00:00:00Z"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Who" numFmtId="0">
@@ -284,11 +585,28 @@
     <cacheField name="What" numFmtId="0">
       <sharedItems>
         <s v="TD"/>
+        <s v="AS"/>
+        <s v="CS"/>
+        <s v="DPC"/>
+        <s v="DJC"/>
+        <s v="DANC"/>
+        <s v="DCC"/>
+        <s v="DCF"/>
+        <s v="DPF"/>
+        <s v="DJF"/>
+        <s v="DANF"/>
+        <s v="SWS"/>
+        <s v="DOCK"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Workload" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
-        <n v="2.0"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1">
+        <n v="0.2"/>
+        <n v="0.5"/>
+        <n v="0.3"/>
+        <n v="0.1"/>
+        <n v="1.0"/>
+        <n v="1.3"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -297,11 +615,16 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique" cacheId="0" dataCaption="" compact="0" compactData="0">
-  <location ref="A1:H4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A1:H16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields>
     <pivotField name="Date" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -318,6 +641,18 @@
     </pivotField>
     <pivotField name="What" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
       <items>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="11"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -325,6 +660,11 @@
     <pivotField name="Workload" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -545,7 +885,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="23.88"/>
+    <col customWidth="1" min="3" max="3" width="34.38"/>
     <col customWidth="1" min="4" max="4" width="24.5"/>
     <col customWidth="1" min="5" max="5" width="21.88"/>
     <col customWidth="1" min="6" max="6" width="60.38"/>
@@ -689,214 +1029,1312 @@
       </c>
     </row>
     <row r="22">
+      <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="20"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="20"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="20"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="20"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B47:H47"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="7" max="7" width="69.25"/>
+    <col customWidth="1" min="8" max="8" width="35.5"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="20">
+        <v>44690.0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="20">
+        <v>44690.0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="20">
+        <v>44690.0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="20">
+        <v>44690.0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="20">
+        <v>44690.0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="20">
+        <v>44690.0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="20">
+        <v>44690.0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="20">
+        <v>44690.0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="20">
+        <v>44690.0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="20">
+        <v>44690.0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="20">
+        <v>44690.0</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="20">
+        <v>44690.0</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="20">
+        <v>44691.0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="20">
+        <v>44691.0</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="20">
+        <v>44691.0</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="20">
+        <v>44691.0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="20">
+        <v>44691.0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="20">
+        <v>44691.0</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="20">
+        <v>44691.0</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>34</v>
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="23">
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="C23" s="20">
+        <v>44691.0</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="24">
-      <c r="C24" s="3" t="s">
-        <v>36</v>
+      <c r="C24" s="20">
+        <v>44691.0</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="25">
-      <c r="C25" s="3" t="s">
-        <v>37</v>
+      <c r="C25" s="20">
+        <v>44691.0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="26">
-      <c r="C26" s="3" t="s">
-        <v>38</v>
+      <c r="C26" s="20">
+        <v>44691.0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" s="20">
+        <v>44691.0</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" s="20">
+        <v>44697.0</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" s="20">
+        <v>44697.0</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" s="20">
+        <v>44697.0</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" s="20">
+        <v>44697.0</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" s="20">
+        <v>44697.0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" s="20">
+        <v>44697.0</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" s="20">
+        <v>44697.0</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="s">
-        <v>39</v>
+      <c r="C35" s="20">
+        <v>44697.0</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>41</v>
+      <c r="C36" s="20">
+        <v>44697.0</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" s="20">
+        <v>44697.0</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" s="20">
+        <v>44697.0</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" s="20">
+        <v>44697.0</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" s="20">
+        <v>44698.0</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" s="20">
+        <v>44698.0</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" s="20">
+        <v>44698.0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" s="20">
+        <v>44698.0</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" s="20">
+        <v>44698.0</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" s="20">
+        <v>44698.0</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" s="20">
+        <v>44698.0</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" s="20">
+        <v>44698.0</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="6">
-        <v>44690.0</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="F47" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" s="20">
+        <v>44698.0</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" s="20">
+        <v>44698.0</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" s="20">
+        <v>44698.0</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" s="20">
+        <v>44698.0</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" s="20">
+        <v>44704.0</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="6">
-        <v>44690.0</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="F52" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" s="20">
+        <v>44704.0</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="6">
-        <v>44690.0</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="F53" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" s="20">
+        <v>44704.0</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="6">
-        <v>44690.0</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="F54" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" s="20">
+        <v>44704.0</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="6">
-        <v>44690.0</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="F55" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" s="20">
+        <v>44704.0</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="6">
-        <v>44690.0</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="F56" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" s="20">
+        <v>44704.0</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48">
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49">
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50">
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51">
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52">
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53">
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54">
-      <c r="B54" s="6"/>
+      <c r="F57" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" s="20">
+        <v>44705.0</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" s="20">
+        <v>44705.0</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" s="20">
+        <v>44705.0</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" s="20">
+        <v>44705.0</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" s="20">
+        <v>44705.0</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" s="20">
+        <v>44705.0</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -910,6 +2348,18 @@
     <row r="2"/>
     <row r="3"/>
     <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
   </sheetData>
   <drawing r:id="rId2"/>
 </worksheet>
